--- a/main/Cases/ExampleBatteryPV_cost.xlsx
+++ b/main/Cases/ExampleBatteryPV_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\ownCloud\AGISTIN\UPC\AGISTIN_UPC\agistin\main\Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\Desktop\CurrentProjects\AGISTIN\GitHub Repositories\Uni-Kassel_Task-3.2\agistin\main\Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0627E-D555-4807-8B4C-1D73A9EC084F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2AD924-339E-42DC-975F-687071CAF9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2415" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="10" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="42210" yWindow="-2145" windowWidth="33255" windowHeight="17670" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,30 @@
     <sheet name="SolarPV" sheetId="10" r:id="rId10"/>
     <sheet name="Battery_MV" sheetId="12" r:id="rId11"/>
     <sheet name="Switch" sheetId="11" r:id="rId12"/>
+    <sheet name="Tabelle1" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>cost_MainGrid</t>
   </si>
@@ -72,6 +84,12 @@
   </si>
   <si>
     <t>cost_Battery1</t>
+  </si>
+  <si>
+    <t>rev_FCR</t>
+  </si>
+  <si>
+    <t>cost_feed_in</t>
   </si>
 </sst>
 </file>
@@ -424,46 +442,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDBFD1F-93C1-4DFD-8CBE-DA36DEB8F281}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>0.5*A2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C33" si="0">0.75*A2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B56" si="1">0.5*A3</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C56" si="2">0.75*A34</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -475,9 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB1DA86-E473-4447-9EDD-C35A3EE02889}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -491,7 +1202,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -505,11 +1216,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89A51B1-8B3E-424C-A847-DA820C94EAD6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -530,11 +1242,754 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F4E95F-4697-4DBE-BA00-3D4090DC0192}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22:K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60D71E-6742-4109-81D1-DB4757D4ACE6}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>0.5*A2</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C56" si="0">0.75*A2</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B56" si="1">0.5*A3</f>
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
